--- a/data/cfq_24_periods_test.xlsx
+++ b/data/cfq_24_periods_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A5A66-75AD-1B41-AF32-D716BAA4614D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C429296-20C5-7F4B-A3B3-59F011C9EEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA54A81F-3EE7-3F45-B926-134A18F70D2C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/cfq_24_periods_test.xlsx
+++ b/data/cfq_24_periods_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C429296-20C5-7F4B-A3B3-59F011C9EEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD2D14-1DED-8B49-BD0B-78D87AE5EC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -63,11 +63,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -933,6 +928,12 @@
 		}
 	],
 	"feePlanList": []
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json",
+"X-TBC-SOURCE":"tbc_zhtb_pintec"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1300,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1335,22 +1336,22 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1366,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,22 +1399,22 @@
     </row>
     <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1428,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,16 +1460,16 @@
     </row>
     <row r="2" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1485,7 +1486,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,15 +1517,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2">
@@ -1542,7 +1543,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1575,16 +1576,16 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1601,7 +1602,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1632,15 +1633,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2">
@@ -1658,7 +1659,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1691,16 +1692,16 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1717,7 +1718,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,16 +1751,16 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2000</v>
@@ -1775,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB92737-C6E0-BF46-8C1D-86E4F4581F46}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,16 +1810,16 @@
     </row>
     <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F2">
         <v>2000</v>

--- a/data/cfq_24_periods_test.xlsx
+++ b/data/cfq_24_periods_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxiangjie/PycharmProjects/CloudLoan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD2D14-1DED-8B49-BD0B-78D87AE5EC56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E81B07-4D0F-454C-8ED1-A04AB273868B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="680" windowWidth="18560" windowHeight="14560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="approved" sheetId="2" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1776,7 +1776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB92737-C6E0-BF46-8C1D-86E4F4581F46}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
